--- a/calculations/environments/environments.xlsx
+++ b/calculations/environments/environments.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sucha\programming\offset_me\calculations\environments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F02D400-30FF-4228-ACA1-631281900B3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59089A1D-9242-4C69-AE05-C512CAEA4BB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="4020" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forrest_loss" sheetId="1" r:id="rId1"/>
+    <sheet name="climate" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>per UK person</t>
   </si>
@@ -120,9 +143,6 @@
     <t>taking $3 per km2 of remaining wilderness</t>
   </si>
   <si>
-    <t>taking $10k per km2 lost</t>
-  </si>
-  <si>
     <t>taking $950k per km2 lost</t>
   </si>
   <si>
@@ -135,9 +155,6 @@
     <t>Other wilderness:</t>
   </si>
   <si>
-    <t>Conclusion</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -148,6 +165,48 @@
   </si>
   <si>
     <t>taking $10k per km2 of remaining wilderness</t>
+  </si>
+  <si>
+    <t>Primary forest loss</t>
+  </si>
+  <si>
+    <t>Secondary forest loss</t>
+  </si>
+  <si>
+    <t>Other land changes</t>
+  </si>
+  <si>
+    <t>in Pounds</t>
+  </si>
+  <si>
+    <t>Carbon estimates</t>
+  </si>
+  <si>
+    <t>WWF from consumption</t>
+  </si>
+  <si>
+    <t>tCO2</t>
+  </si>
+  <si>
+    <t>Woldwite production</t>
+  </si>
+  <si>
+    <t>Equal worldwide proportion</t>
+  </si>
+  <si>
+    <t>Per income worldwide proportion</t>
+  </si>
+  <si>
+    <t>offsets</t>
+  </si>
+  <si>
+    <t>cheap (7.4 pounds/tonne)</t>
+  </si>
+  <si>
+    <t>average (12.6 ponds / tonne)</t>
+  </si>
+  <si>
+    <t>taking £10k per km2 lost</t>
   </si>
 </sst>
 </file>
@@ -467,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,8 +619,8 @@
         <v>10000</v>
       </c>
       <c r="C7">
-        <f>B7*C5</f>
-        <v>0.19613072105240967</v>
+        <f>F15*B5</f>
+        <v>14.09235551265462</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -578,12 +637,18 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>B8*C36/C8</f>
+        <v>346749.99999999994</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -603,16 +668,16 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
         <v>28</v>
       </c>
-      <c r="H12" t="s">
-        <v>29</v>
-      </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -632,7 +697,7 @@
         <v>0.53658536585365857</v>
       </c>
       <c r="E13">
-        <f>B13*3000000</f>
+        <f t="shared" ref="E13:E26" si="0">B13*3000000</f>
         <v>24166666.666666668</v>
       </c>
       <c r="F13">
@@ -640,16 +705,16 @@
         <v>80555555555.555557</v>
       </c>
       <c r="G13">
-        <f>10000*1000000*C13/25</f>
-        <v>247804878.04878047</v>
+        <f>10000*1000000*C13/25/0.74</f>
+        <v>334871456.8226763</v>
       </c>
       <c r="H13">
-        <f>950000*1000000*C13/25</f>
-        <v>23541463414.634144</v>
+        <f>950000*1000000*C13/25/2</f>
+        <v>11770731707.317072</v>
       </c>
       <c r="I13">
         <f>H13/10</f>
-        <v>2354146341.4634142</v>
+        <v>1177073170.7317071</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -669,24 +734,24 @@
         <v>0.1024390243902439</v>
       </c>
       <c r="E14">
-        <f>B14*3000000</f>
+        <f t="shared" si="0"/>
         <v>4416666.666666667</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:F26" si="0">10000*1000000*B14</f>
+        <f t="shared" ref="F14:F26" si="1">10000*1000000*B14</f>
         <v>14722222222.222223</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G26" si="1">10000*1000000*C14/25</f>
-        <v>162926829.26829267</v>
+        <f t="shared" ref="G14:G26" si="2">10000*1000000*C14/25/0.74</f>
+        <v>220171390.9030982</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:H26" si="2">950000*1000000*C14/25</f>
-        <v>15478048780.487803</v>
+        <f t="shared" ref="H14:H26" si="3">950000*1000000*C14/25/2</f>
+        <v>7739024390.2439013</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14:I26" si="3">H14</f>
-        <v>15478048780.487803</v>
+        <f t="shared" ref="I14:I26" si="4">H14</f>
+        <v>7739024390.2439013</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -706,20 +771,20 @@
         <v>0.55609756097560969</v>
       </c>
       <c r="E15">
-        <f>B15*3000000</f>
+        <f t="shared" si="0"/>
         <v>8083333.333333333</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26944444444.444443</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>507317073.17073172</v>
+        <f t="shared" si="2"/>
+        <v>685563612.39288068</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
-        <v>48195121951.219513</v>
+        <f t="shared" si="3"/>
+        <v>24097560975.609756</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -739,20 +804,20 @@
         <v>0.38292682926829269</v>
       </c>
       <c r="E16">
-        <f>B16*3000000</f>
+        <f t="shared" si="0"/>
         <v>26916666.666666664</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89722222222.222214</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>126829268.29268293</v>
+        <f t="shared" si="2"/>
+        <v>171390903.09822017</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
-        <v>12048780487.804878</v>
+        <f t="shared" si="3"/>
+        <v>6024390243.9024391</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -772,24 +837,24 @@
         <v>1.9512195121951219E-2</v>
       </c>
       <c r="E17">
-        <f>B17*3000000</f>
+        <f t="shared" si="0"/>
         <v>1416666.6666666667</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4722222222.2222223</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
-        <v>23414634.146341462</v>
+        <f t="shared" si="2"/>
+        <v>31641397.495056029</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
-        <v>2224390243.9024391</v>
+        <f t="shared" si="3"/>
+        <v>1112195121.9512196</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
-        <v>2224390243.9024391</v>
+        <f t="shared" si="4"/>
+        <v>1112195121.9512196</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -809,24 +874,24 @@
         <v>4.8780487804878049E-3</v>
       </c>
       <c r="E18">
-        <f>B18*3000000</f>
+        <f t="shared" si="0"/>
         <v>833333.33333333337</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2777777777.7777777</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>16585365.853658538</v>
+        <f t="shared" si="2"/>
+        <v>22412656.558998026</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
-        <v>1575609756.0975611</v>
+        <f t="shared" si="3"/>
+        <v>787804878.04878056</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
-        <v>1575609756.0975611</v>
+        <f t="shared" si="4"/>
+        <v>787804878.04878056</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -846,24 +911,24 @@
         <v>0.28780487804878047</v>
       </c>
       <c r="E19">
-        <f>B19*3000000</f>
+        <f t="shared" si="0"/>
         <v>20583333.333333336</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68611111111.111115</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>89756097.560975611</v>
+        <f t="shared" si="2"/>
+        <v>121292023.73104812</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
-        <v>8526829268.2926826</v>
+        <f t="shared" si="3"/>
+        <v>4263414634.1463413</v>
       </c>
       <c r="I19">
         <f>H19/10</f>
-        <v>852682926.82926822</v>
+        <v>426341463.41463411</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -883,24 +948,24 @@
         <v>0.4195121951219512</v>
       </c>
       <c r="E20">
-        <f>B20*3000000</f>
+        <f t="shared" si="0"/>
         <v>2999999.9999999995</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9999999999.9999981</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>55609756.097560972</v>
+        <f t="shared" si="2"/>
+        <v>75148319.050758064</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
-        <v>5282926829.2682924</v>
+        <f t="shared" si="3"/>
+        <v>2641463414.6341462</v>
       </c>
       <c r="I20">
-        <f t="shared" si="3"/>
-        <v>5282926829.2682924</v>
+        <f t="shared" si="4"/>
+        <v>2641463414.6341462</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -920,24 +985,24 @@
         <v>3.1707317073170732E-2</v>
       </c>
       <c r="E21">
-        <f>B21*3000000</f>
+        <f t="shared" si="0"/>
         <v>2250000</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7500000000</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>21463414.634146344</v>
+        <f t="shared" si="2"/>
+        <v>29004614.370468032</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
-        <v>2039024390.2439022</v>
+        <f t="shared" si="3"/>
+        <v>1019512195.1219511</v>
       </c>
       <c r="I21">
-        <f t="shared" si="3"/>
-        <v>2039024390.2439022</v>
+        <f t="shared" si="4"/>
+        <v>1019512195.1219511</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -957,24 +1022,24 @@
         <v>7.3170731707317069E-3</v>
       </c>
       <c r="E22">
-        <f>B22*3000000</f>
+        <f t="shared" si="0"/>
         <v>416666.66666666669</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1388888888.8888888</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
-        <v>6829268.292682928</v>
+        <f t="shared" si="2"/>
+        <v>9228740.9360580109</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
-        <v>648780487.80487812</v>
+        <f t="shared" si="3"/>
+        <v>324390243.90243906</v>
       </c>
       <c r="I22">
-        <f t="shared" si="3"/>
-        <v>648780487.80487812</v>
+        <f t="shared" si="4"/>
+        <v>324390243.90243906</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -994,24 +1059,24 @@
         <v>4.8780487804878049E-3</v>
       </c>
       <c r="E23">
-        <f>B23*3000000</f>
+        <f t="shared" si="0"/>
         <v>14634.146341463415</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48780487.804878049</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>11707317.073170731</v>
+        <f t="shared" si="2"/>
+        <v>15820698.747528015</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
-        <v>1112195121.9512196</v>
+        <f t="shared" si="3"/>
+        <v>556097560.97560978</v>
       </c>
       <c r="I23">
-        <f t="shared" si="3"/>
-        <v>1112195121.9512196</v>
+        <f t="shared" si="4"/>
+        <v>556097560.97560978</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1031,24 +1096,24 @@
         <v>3.6585365853658534E-3</v>
       </c>
       <c r="E24">
-        <f>B24*3000000</f>
+        <f t="shared" si="0"/>
         <v>83333.333333333328</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>277777777.77777779</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>5853658.5365853654</v>
+        <f t="shared" si="2"/>
+        <v>7910349.3737640074</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
-        <v>556097560.97560978</v>
+        <f t="shared" si="3"/>
+        <v>278048780.48780489</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
-        <v>556097560.97560978</v>
+        <f t="shared" si="4"/>
+        <v>278048780.48780489</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1068,24 +1133,24 @@
         <v>2.4390243902439024E-3</v>
       </c>
       <c r="E25">
-        <f>B25*3000000</f>
+        <f t="shared" si="0"/>
         <v>7317.0731707317073</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24390243.902439024</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
-        <v>1463414.6341463414</v>
+        <f t="shared" si="2"/>
+        <v>1977587.3434410018</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
-        <v>139024390.24390244</v>
+        <f t="shared" si="3"/>
+        <v>69512195.121951222</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
-        <v>139024390.24390244</v>
+        <f t="shared" si="4"/>
+        <v>69512195.121951222</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1105,24 +1170,24 @@
         <v>2.4390243902439024E-3</v>
       </c>
       <c r="E26">
-        <f>B26*3000000</f>
+        <f t="shared" si="0"/>
         <v>7317.0731707317073</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24390243.902439024</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
-        <v>1951219.512195122</v>
+        <f t="shared" si="2"/>
+        <v>2636783.1245880029</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
-        <v>185365853.65853655</v>
+        <f t="shared" si="3"/>
+        <v>92682926.829268277</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
-        <v>185365853.65853655</v>
+        <f t="shared" si="4"/>
+        <v>92682926.829268277</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1136,15 +1201,15 @@
       </c>
       <c r="G27">
         <f>SUM(G13:G26)</f>
-        <v>1279512195.1219511</v>
+        <v>1729070533.9485829</v>
       </c>
       <c r="H27">
         <f>SUM(H13:H26)</f>
-        <v>121553658536.58534</v>
+        <v>60776829268.292671</v>
       </c>
       <c r="I27">
         <f>SUM(I13:I26)</f>
-        <v>32448292682.926823</v>
+        <v>16224146341.463411</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1158,47 +1223,242 @@
       </c>
       <c r="G28">
         <f>B5*G27</f>
-        <v>0.66920439846565272</v>
+        <v>0.90433026819682816</v>
       </c>
       <c r="H28">
         <f>B5*H27</f>
-        <v>63.574417854236998</v>
+        <v>31.787208927118499</v>
       </c>
       <c r="I28">
         <f>B5*I27</f>
-        <v>16.970952108858842</v>
+        <v>8.4854760544294212</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
         <v>34</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <f>D6/2+C7+G28</f>
-        <v>11.560997107576135</v>
+        <f>C6</f>
+        <v>3.9226144210481935</v>
       </c>
       <c r="C32">
-        <f>I28+D6+C8/3</f>
-        <v>44.573082251634631</v>
+        <f>C8/2</f>
+        <v>9.3162092499894591</v>
       </c>
       <c r="D32">
-        <f>H28+D6</f>
-        <v>84.965741830353153</v>
+        <f>C8*2</f>
+        <v>37.264836999957836</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <f>D6/2</f>
+        <v>10.695661988058074</v>
+      </c>
+      <c r="C33">
+        <f>D6</f>
+        <v>21.391323976116148</v>
+      </c>
+      <c r="D33">
+        <f>D6*2</f>
+        <v>42.782647952232296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <f>G28</f>
+        <v>0.90433026819682816</v>
+      </c>
+      <c r="C34">
+        <f>I28</f>
+        <v>8.4854760544294212</v>
+      </c>
+      <c r="D34">
+        <f>I28*4</f>
+        <v>33.941904217717685</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <f>B32 *0.73</f>
+        <v>2.8635085273651812</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:D36" si="5">C32 *0.73</f>
+        <v>6.8008327524923047</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="5"/>
+        <v>27.203331009969219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37:D37" si="6">B33 *0.73</f>
+        <v>7.8078332512823936</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="6"/>
+        <v>15.615666502564787</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="6"/>
+        <v>31.231333005129574</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38:D38" si="7">B34 *0.73</f>
+        <v>0.66016109578368454</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="7"/>
+        <v>6.1943975197334771</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="7"/>
+        <v>24.777590078933908</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C63200-0F8F-430F-8C89-AEE905A7D7DD}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <f>800/66.65</f>
+        <v>12.003000750187546</v>
+      </c>
+      <c r="D2">
+        <v>33000000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <f>D2/7700000000</f>
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <f>D2*Forrest_loss!B5</f>
+        <v>17.259503452612051</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" cm="1">
+        <f t="array" ref="B7:B9">B2:B4*7.4</f>
+        <v>88.822205551387839</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" ref="C7:C9">B2:B4*12.6</f>
+        <v>151.23780945236308</v>
+      </c>
+      <c r="D7">
+        <f>B2*15*0.74</f>
+        <v>133.23330832708177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>31.714285714285715</v>
+      </c>
+      <c r="C8">
+        <v>54</v>
+      </c>
+      <c r="F8">
+        <f>15*0.74</f>
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>127.72032554932919</v>
+      </c>
+      <c r="C9">
+        <v>217.46974350291185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/calculations/environments/environments.xlsx
+++ b/calculations/environments/environments.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sucha\programming\offset_me\calculations\environments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59089A1D-9242-4C69-AE05-C512CAEA4BB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ED88B5-B814-4BC9-B453-70D348694B95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16845" yWindow="6000" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forrest_loss" sheetId="1" r:id="rId1"/>
     <sheet name="climate" sheetId="2" r:id="rId2"/>
+    <sheet name="biodiversity" sheetId="3" r:id="rId3"/>
+    <sheet name="nitrogen_phosphorus_cycles" sheetId="4" r:id="rId4"/>
+    <sheet name="freshwater" sheetId="5" r:id="rId5"/>
+    <sheet name="chemical_pollution" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
   <si>
     <t>per UK person</t>
   </si>
@@ -207,6 +211,129 @@
   </si>
   <si>
     <t>taking £10k per km2 lost</t>
+  </si>
+  <si>
+    <t>global shortfall (USD)</t>
+  </si>
+  <si>
+    <t>per uk person (GBP)</t>
+  </si>
+  <si>
+    <t>Fertilizer market size</t>
+  </si>
+  <si>
+    <t>average profit margins</t>
+  </si>
+  <si>
+    <t>runoff-rate</t>
+  </si>
+  <si>
+    <t>cost to reduce</t>
+  </si>
+  <si>
+    <t>per capita in gbp</t>
+  </si>
+  <si>
+    <t>Arable land for livestock feed</t>
+  </si>
+  <si>
+    <t>runoff fertilizer reduction from switching to vegan</t>
+  </si>
+  <si>
+    <t>Meat consumption rate UK vs global</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>agriculture water use rate</t>
+  </si>
+  <si>
+    <t>of which for livestock feed</t>
+  </si>
+  <si>
+    <t>reduction by going vegan</t>
+  </si>
+  <si>
+    <t>Plastics</t>
+  </si>
+  <si>
+    <t>Going to landfills</t>
+  </si>
+  <si>
+    <t>Going to mismanaged coastal</t>
+  </si>
+  <si>
+    <t>Going into the ocean</t>
+  </si>
+  <si>
+    <t>Incineration</t>
+  </si>
+  <si>
+    <t>OceanCleanup</t>
+  </si>
+  <si>
+    <t>$/kg</t>
+  </si>
+  <si>
+    <t>overall cost</t>
+  </si>
+  <si>
+    <t>equal proportion</t>
+  </si>
+  <si>
+    <t>proportion by income</t>
+  </si>
+  <si>
+    <t>proportion by uk consumption</t>
+  </si>
+  <si>
+    <t>tCO2/kg</t>
+  </si>
+  <si>
+    <t>15$/tCO2</t>
+  </si>
+  <si>
+    <t>cost per kg</t>
+  </si>
+  <si>
+    <t>capital cost per tonne of annual capacity</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>UK per capita</t>
+  </si>
+  <si>
+    <t>Recycling projects</t>
+  </si>
+  <si>
+    <t>Annual waste production</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>POPs</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>DDT phase out cost to developing nations</t>
+  </si>
+  <si>
+    <t>low est</t>
+  </si>
+  <si>
+    <t>high est</t>
   </si>
 </sst>
 </file>
@@ -242,10 +369,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C63200-0F8F-430F-8C89-AEE905A7D7DD}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,6 +1551,9 @@
       <c r="C6" t="s">
         <v>48</v>
       </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" cm="1">
@@ -1434,8 +1565,8 @@
         <v>151.23780945236308</v>
       </c>
       <c r="D7">
-        <f>B2*15*0.74</f>
-        <v>133.23330832708177</v>
+        <f>B2*F8</f>
+        <v>133.23330832708174</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1456,6 +1587,620 @@
       </c>
       <c r="C9">
         <v>217.46974350291185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>B8</f>
+        <v>31.714285714285715</v>
+      </c>
+      <c r="C12">
+        <f>D7</f>
+        <v>133.23330832708174</v>
+      </c>
+      <c r="D12">
+        <f>C9</f>
+        <v>217.46974350291185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AFF124-469E-48B4-8235-5F906E866836}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>3400000000</v>
+      </c>
+      <c r="C2">
+        <v>12700000000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>38100000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <f>B2*Forrest_loss!$B5*0.74</f>
+        <v>1.3159063844476337</v>
+      </c>
+      <c r="C3">
+        <f>C2*Forrest_loss!$B5*0.74</f>
+        <v>4.9152973772014557</v>
+      </c>
+      <c r="D3">
+        <f>D2*Forrest_loss!$B5*0.74</f>
+        <v>14.745892131604368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D143D82-4FEE-4819-824A-7303C1AEF487}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>158000000000</v>
+      </c>
+      <c r="B2">
+        <v>0.3</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <f>C2*A2*B2</f>
+        <v>23700000000</v>
+      </c>
+      <c r="E2">
+        <f>D2*Forrest_loss!B5*0.74</f>
+        <v>9.1726415621790949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.36</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>1/(A5*B5*C5/7600000000)</f>
+        <v>15079365079.36508</v>
+      </c>
+      <c r="E5">
+        <f>D5*Forrest_loss!B5*0.74</f>
+        <v>5.836186112162709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>B8/2</f>
+        <v>2.9180930560813545</v>
+      </c>
+      <c r="B8">
+        <f>E5</f>
+        <v>5.836186112162709</v>
+      </c>
+      <c r="C8">
+        <f>E2*2</f>
+        <v>18.34528312435819</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5F5C85-0EAB-461B-A55F-BB6029F37BA9}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.92</v>
+      </c>
+      <c r="B2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C2">
+        <v>0.8</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f>1/(A2*C2*B2*D2/7600000000)</f>
+        <v>17803598200.899551</v>
+      </c>
+      <c r="F2">
+        <f>E2*Forrest_loss!B5*0.74</f>
+        <v>6.8905495702070976</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>C7/2</f>
+        <v>1.7226373925517744</v>
+      </c>
+      <c r="C7">
+        <f>D7/2</f>
+        <v>3.4452747851035488</v>
+      </c>
+      <c r="D7">
+        <f>F2</f>
+        <v>6.8905495702070976</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7AE5D9-62B8-4D5D-8A52-33A5526DF1A0}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3">
+        <v>415000000000</v>
+      </c>
+      <c r="D3">
+        <f>0.21*365</f>
+        <v>76.649999999999991</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>201000000000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <f>I5/C4</f>
+        <v>3.283582089552239</v>
+      </c>
+      <c r="J4">
+        <f>J5/C4</f>
+        <v>0.46766169154228854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5">
+        <v>37600000000</v>
+      </c>
+      <c r="D5">
+        <f>C5*(0.0021/3+0.0014*2/3)/68000000</f>
+        <v>0.90313725490196084</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5">
+        <f>C6*H4</f>
+        <v>47000000000</v>
+      </c>
+      <c r="I5">
+        <v>660000000000</v>
+      </c>
+      <c r="J5">
+        <v>94000000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6">
+        <v>9400000000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6">
+        <f>F4*climate!F8+F5/20/1000</f>
+        <v>7.775E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8">
+        <f>0.74*F6/7600000000*C4</f>
+        <v>1.5216493421052633</v>
+      </c>
+      <c r="H8">
+        <f>0.74*H5/7600000000</f>
+        <v>4.5763157894736839</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:J8" si="0">0.74*I5/7600000000</f>
+        <v>64.263157894736835</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>9.1526315789473678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <f>0.74*F6*Forrest_loss!B5*C4</f>
+        <v>6.0484282351622092</v>
+      </c>
+      <c r="H9">
+        <f>0.74*H5*Forrest_loss!$B5</f>
+        <v>18.190470608540821</v>
+      </c>
+      <c r="I9">
+        <f>0.74*I5*Forrest_loss!$B5</f>
+        <v>255.44065109865835</v>
+      </c>
+      <c r="J9">
+        <f>0.74*J5*Forrest_loss!$B5</f>
+        <v>36.380941217081642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>0.02</v>
+      </c>
+      <c r="F10">
+        <f>(($D$5*7600000000/$C$5+$C10)*$D$3)*F$6</f>
+        <v>1.2070984779411764</v>
+      </c>
+      <c r="H10">
+        <f>($C10*($C$5/$C$3*$D$3)+$D$5)*H$4*0.74</f>
+        <v>3.855513770848098</v>
+      </c>
+      <c r="I10">
+        <f>($C10*($C$4/$C$3*$D$3)+$D$5*$C$4/$C$5)*I$4*0.74</f>
+        <v>13.535314301913539</v>
+      </c>
+      <c r="J10">
+        <f>($C10*($C$4/$C$3*$D$3)+$D$5*$C$4/$C$5)*J$4*0.74</f>
+        <v>1.9277568854240494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F12" si="1">(($D$5*7600000000/$C$5+$C11)*$D$3)*F$6</f>
+        <v>1.6838614779411765</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H12" si="2">($C11*($C$5/$C$3*$D$3)+$D$5)*H$4*0.74</f>
+        <v>5.9111374816914717</v>
+      </c>
+      <c r="I11">
+        <f>($C11*($C$4/$C$3*$D$3)+$D$5*$C$4/$C$5)*I$4*0.74</f>
+        <v>20.751865627214741</v>
+      </c>
+      <c r="J11">
+        <f>($C11*($C$4/$C$3*$D$3)+$D$5*$C$4/$C$5)*J$4*0.74</f>
+        <v>2.9555687408457358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0.2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2.2798152279411763</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>8.4806671202456876</v>
+      </c>
+      <c r="I12">
+        <f>($C12*($C$4/$C$3*$D$3)+$D$5*$C$4/$C$5)*I$4*0.74</f>
+        <v>29.772554783841251</v>
+      </c>
+      <c r="J12">
+        <f>($C12*($C$4/$C$3*$D$3)+$D$5*$C$4/$C$5)*J$4*0.74</f>
+        <v>4.2403335601228447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f>AVERAGE(H10,J10)</f>
+        <v>2.8916353281360738</v>
+      </c>
+      <c r="G15">
+        <f>AVERAGE(H12,J12)</f>
+        <v>6.3605003401842666</v>
+      </c>
+      <c r="H15">
+        <f>AVERAGE(H9,J9)</f>
+        <v>27.285705912811231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>350000000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>950000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="3">
+        <f>B20*Forrest_loss!$B5*0.74</f>
+        <v>0.13546095134019762</v>
+      </c>
+      <c r="G23" s="3">
+        <f>C20*Forrest_loss!$B5*0.74</f>
+        <v>0.36767972506625063</v>
+      </c>
+      <c r="H23" s="3">
+        <f>C20*Forrest_loss!$B5*0.74*2</f>
+        <v>0.73535945013250126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f>1000000000*Forrest_loss!B5*0.74</f>
+        <v>0.3870312895434217</v>
+      </c>
+      <c r="G27">
+        <f>10000000000*Forrest_loss!B5*0.74</f>
+        <v>3.8703128954342172</v>
+      </c>
+      <c r="H27">
+        <f>50000000000*Forrest_loss!B5*0.74</f>
+        <v>19.351564477171088</v>
       </c>
     </row>
   </sheetData>
